--- a/suivieSangles.xlsx
+++ b/suivieSangles.xlsx
@@ -1316,11 +1316,15 @@
       <c r="A24" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
+      <c r="B24" s="12">
+        <v>3</v>
+      </c>
+      <c r="C24" s="13">
+        <v>2</v>
+      </c>
       <c r="D24" s="12"/>
       <c r="E24" s="13">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="13"/>
@@ -1457,11 +1461,11 @@
       </c>
       <c r="B35" s="20">
         <f>SUM(B4:B34)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C35" s="21">
         <f t="shared" ref="C35:I35" si="0">SUM(C4:C34)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D35" s="20">
         <f t="shared" si="0"/>
@@ -1469,7 +1473,7 @@
       </c>
       <c r="E35" s="21">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F35" s="20">
         <f t="shared" si="0"/>
@@ -1494,12 +1498,12 @@
       </c>
       <c r="B36" s="41">
         <f>C35-B35</f>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="C36" s="42"/>
       <c r="D36" s="43">
         <f>E35-D35</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E36" s="44"/>
       <c r="F36" s="43">
@@ -1519,12 +1523,12 @@
       </c>
       <c r="B37" s="33">
         <f>janvier!B37+B36</f>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="C37" s="34"/>
       <c r="D37" s="33">
         <f>janvier!D37+D36</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E37" s="34"/>
       <c r="F37" s="33">
@@ -1574,7 +1578,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37 F37">
+  <conditionalFormatting sqref="F37 D37">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2146,7 +2150,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37 D37">
+  <conditionalFormatting sqref="D37 F37">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2700,7 +2704,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37 D37">
+  <conditionalFormatting sqref="D37 F37">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
